--- a/7.SQL/documents/normalization.xlsx
+++ b/7.SQL/documents/normalization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40cbc61c02823304/Área de Trabalho/Emanuel/Web-Development-Course/7.SQL/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F94925B-2AD6-4DA9-AEBF-FA83BC26E00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{1F94925B-2AD6-4DA9-AEBF-FA83BC26E00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7EEEE34-2D2A-499C-B70C-A9B4FB2B8A1E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8C798455-50EB-4E83-8022-F18F926495A9}"/>
   </bookViews>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>telefone</t>
-  </si>
-  <si>
     <t>rua A, bairro B, cidade C</t>
   </si>
   <si>
@@ -65,18 +59,9 @@
     <t>(88) 7777-7777</t>
   </si>
   <si>
-    <t>rua</t>
-  </si>
-  <si>
     <t>rua A</t>
   </si>
   <si>
-    <t>bairro</t>
-  </si>
-  <si>
-    <t>cidade</t>
-  </si>
-  <si>
     <t>Bairro B</t>
   </si>
   <si>
@@ -129,6 +114,21 @@
   </si>
   <si>
     <t>3FN (Transitiva)</t>
+  </si>
+  <si>
+    <t>fk_course</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>neighborhood</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>name_course</t>
   </si>
 </sst>
 </file>
@@ -259,28 +259,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -290,6 +299,37 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -317,16 +357,9 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="8"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -360,30 +393,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -405,7 +414,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6433B179-BDC3-4D2F-A14B-6EEE3340F882}" name="Tabela1" displayName="Tabela1" ref="B4:H6" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6433B179-BDC3-4D2F-A14B-6EEE3340F882}" name="Tabela1" displayName="Tabela1" ref="B4:H6" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="B4:H6" xr:uid="{6433B179-BDC3-4D2F-A14B-6EEE3340F882}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{76A83139-FC91-40F7-9D56-2011F6EB95C9}" name="id"/>
@@ -421,16 +430,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BB08FAFA-AC36-4225-8885-CE07BE98BA83}" name="Tabela24" displayName="Tabela24" ref="T4:AA6" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BB08FAFA-AC36-4225-8885-CE07BE98BA83}" name="Tabela24" displayName="Tabela24" ref="T4:AA6" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="T4:AA6" xr:uid="{BB08FAFA-AC36-4225-8885-CE07BE98BA83}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{FC5D0F76-EA8C-4524-97B8-371D897582B0}" name="id"/>
-    <tableColumn id="2" xr3:uid="{C794ADBE-1CF9-4AC2-8699-1281793BE2AD}" name="nome"/>
-    <tableColumn id="4" xr3:uid="{07BA65AB-D573-4710-8F4E-E49C336C7943}" name="rua"/>
-    <tableColumn id="7" xr3:uid="{338F1BCB-288D-49A1-9EEB-A54A2B56CCA7}" name="bairro"/>
-    <tableColumn id="8" xr3:uid="{21C40E77-E834-4E16-8ABC-8E4517B6764B}" name="cidade"/>
+    <tableColumn id="2" xr3:uid="{C794ADBE-1CF9-4AC2-8699-1281793BE2AD}" name="name"/>
+    <tableColumn id="4" xr3:uid="{07BA65AB-D573-4710-8F4E-E49C336C7943}" name="street"/>
+    <tableColumn id="7" xr3:uid="{338F1BCB-288D-49A1-9EEB-A54A2B56CCA7}" name="neighborhood"/>
+    <tableColumn id="8" xr3:uid="{21C40E77-E834-4E16-8ABC-8E4517B6764B}" name="city"/>
     <tableColumn id="5" xr3:uid="{8BF928EC-C5CE-4787-A78A-43D3E0BE7D4E}" name="cod_course"/>
-    <tableColumn id="6" xr3:uid="{7D819CB7-CA6A-40A8-8979-A89CC6483957}" name="nome_course"/>
+    <tableColumn id="6" xr3:uid="{7D819CB7-CA6A-40A8-8979-A89CC6483957}" name="name_course"/>
     <tableColumn id="9" xr3:uid="{AF1AFDC6-7FEA-4A8B-9451-D738A036FB14}" name="hours"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -438,17 +447,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2388B09F-C3B7-4842-B67D-538A61F9765B}" name="Tabela2" displayName="Tabela2" ref="J4:R8" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2388B09F-C3B7-4842-B67D-538A61F9765B}" name="Tabela2" displayName="Tabela2" ref="J4:R8" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="J4:R8" xr:uid="{2388B09F-C3B7-4842-B67D-538A61F9765B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{888FD9EF-C11C-496F-B85A-2FCC6B93E363}" name="id"/>
-    <tableColumn id="2" xr3:uid="{E4F6BA1D-D557-48E7-8DE6-99E68DD8C2EF}" name="nome"/>
-    <tableColumn id="3" xr3:uid="{717ABE28-2055-4403-A2E0-35303D973732}" name="telefone"/>
-    <tableColumn id="4" xr3:uid="{E0B5B222-22C4-4DF0-AADE-9A9B83D8701E}" name="rua"/>
-    <tableColumn id="7" xr3:uid="{98E2317A-8049-46A6-9A8F-ED8E7E39FD9C}" name="bairro"/>
-    <tableColumn id="8" xr3:uid="{99F67FF7-8B05-48B9-87F2-A695581535B2}" name="cidade"/>
+    <tableColumn id="2" xr3:uid="{E4F6BA1D-D557-48E7-8DE6-99E68DD8C2EF}" name="name"/>
+    <tableColumn id="3" xr3:uid="{717ABE28-2055-4403-A2E0-35303D973732}" name="phone"/>
+    <tableColumn id="4" xr3:uid="{E0B5B222-22C4-4DF0-AADE-9A9B83D8701E}" name="street"/>
+    <tableColumn id="7" xr3:uid="{98E2317A-8049-46A6-9A8F-ED8E7E39FD9C}" name="neighborhood"/>
+    <tableColumn id="8" xr3:uid="{99F67FF7-8B05-48B9-87F2-A695581535B2}" name="city"/>
     <tableColumn id="5" xr3:uid="{0F90974E-5AA0-4903-98F7-B72346B2651F}" name="cod_course"/>
-    <tableColumn id="6" xr3:uid="{DD329CA2-8C99-4140-B404-E17F96EFB7EA}" name="nome_course"/>
+    <tableColumn id="6" xr3:uid="{DD329CA2-8C99-4140-B404-E17F96EFB7EA}" name="name_course"/>
     <tableColumn id="9" xr3:uid="{7AE4E441-6D86-493A-A977-CDC73286F8D9}" name="hours"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -456,14 +465,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{786A556C-FD5F-469D-9939-2F388075F074}" name="Tabela246" displayName="Tabela246" ref="AG4:AK6" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="AG4:AK6" xr:uid="{786A556C-FD5F-469D-9939-2F388075F074}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{786A556C-FD5F-469D-9939-2F388075F074}" name="Tabela246" displayName="Tabela246" ref="AK4:AP6" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="AK4:AP6" xr:uid="{786A556C-FD5F-469D-9939-2F388075F074}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{28F287C0-A642-48A5-BCC1-B0A1A495674E}" name="id"/>
-    <tableColumn id="2" xr3:uid="{36BB37E6-AE69-4E62-A8A3-1A569BD296E9}" name="nome"/>
-    <tableColumn id="4" xr3:uid="{F2B9157B-004C-4384-9E75-7AEFCE9A1DA7}" name="rua"/>
-    <tableColumn id="7" xr3:uid="{3B8C041B-17AE-4D41-B81A-755AFD2435F0}" name="bairro"/>
-    <tableColumn id="8" xr3:uid="{34CBB47A-217E-40D9-8910-454D24D7B43C}" name="cidade"/>
+    <tableColumn id="2" xr3:uid="{36BB37E6-AE69-4E62-A8A3-1A569BD296E9}" name="name"/>
+    <tableColumn id="4" xr3:uid="{F2B9157B-004C-4384-9E75-7AEFCE9A1DA7}" name="street"/>
+    <tableColumn id="7" xr3:uid="{3B8C041B-17AE-4D41-B81A-755AFD2435F0}" name="neighborhood"/>
+    <tableColumn id="3" xr3:uid="{2828DC00-B755-4826-A9A1-6D7D2E127CBC}" name="city" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{34CBB47A-217E-40D9-8910-454D24D7B43C}" name="fk_course"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -474,7 +484,7 @@
   <autoFilter ref="AC4:AE8" xr:uid="{C22A364A-D83D-4025-BE8E-90289CF5300B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{78002F2E-C925-48F5-879A-F3CC71F7A559}" name="id"/>
-    <tableColumn id="2" xr3:uid="{2FD2916E-252E-48E7-9A9C-286FD4E707FF}" name="telefone"/>
+    <tableColumn id="2" xr3:uid="{2FD2916E-252E-48E7-9A9C-286FD4E707FF}" name="phone"/>
     <tableColumn id="3" xr3:uid="{9EA4393F-BF95-4A53-9B93-646FE74F53EC}" name="fk_user"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -482,11 +492,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C89930F3-6C9F-4366-8083-0657CF0F69BD}" name="Tabela1214" displayName="Tabela1214" ref="AM4:AO8" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="AM4:AO8" xr:uid="{C89930F3-6C9F-4366-8083-0657CF0F69BD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C89930F3-6C9F-4366-8083-0657CF0F69BD}" name="Tabela1214" displayName="Tabela1214" ref="AR4:AT8" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="AR4:AT8" xr:uid="{C89930F3-6C9F-4366-8083-0657CF0F69BD}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7EE5BBAB-D493-410D-8287-C04026F1E5D7}" name="id"/>
-    <tableColumn id="2" xr3:uid="{6C590E62-773D-4C4D-AA0D-A5DBF949F3FB}" name="telefone"/>
+    <tableColumn id="2" xr3:uid="{6C590E62-773D-4C4D-AA0D-A5DBF949F3FB}" name="phone"/>
     <tableColumn id="3" xr3:uid="{B5186F62-516D-43D4-A58B-602A62690772}" name="fk_user"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -494,11 +504,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F24949A7-706E-4E12-99D7-2BC921C14415}" name="Tabela14" displayName="Tabela14" ref="AQ4:AS6" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="AQ4:AS6" xr:uid="{F24949A7-706E-4E12-99D7-2BC921C14415}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F24949A7-706E-4E12-99D7-2BC921C14415}" name="Tabela14" displayName="Tabela14" ref="AG4:AI6" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="AG4:AI6" xr:uid="{F24949A7-706E-4E12-99D7-2BC921C14415}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{9C7382F1-0969-49AC-946F-6BE3B101F2EA}" name="cod_course"/>
-    <tableColumn id="2" xr3:uid="{D7592D99-D1F7-4E04-8ED8-CE0782E0695F}" name="nome_course"/>
+    <tableColumn id="2" xr3:uid="{D7592D99-D1F7-4E04-8ED8-CE0782E0695F}" name="name_course"/>
     <tableColumn id="3" xr3:uid="{50BAE034-7CD2-4979-87A4-F43A93380DB5}" name="hours"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -802,15 +812,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2B1627-A41E-42AA-907F-AFE2A2506E0A}">
-  <dimension ref="B2:AS8"/>
+  <dimension ref="B2:AT8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AG1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AQ15" sqref="AQ15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AD1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.08984375" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
@@ -819,225 +830,236 @@
     <col min="10" max="10" width="4.36328125" customWidth="1"/>
     <col min="12" max="12" width="26.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.453125" customWidth="1"/>
     <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.7265625" customWidth="1"/>
+    <col min="23" max="23" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="3.453125" customWidth="1"/>
     <col min="29" max="29" width="3.90625" customWidth="1"/>
     <col min="30" max="30" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="2.54296875" customWidth="1"/>
-    <col min="40" max="40" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.08984375" customWidth="1"/>
-    <col min="43" max="43" width="11.6328125" customWidth="1"/>
-    <col min="44" max="44" width="18" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2.54296875" customWidth="1"/>
+    <col min="37" max="37" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2.26953125" customWidth="1"/>
+    <col min="44" max="44" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:45" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:46" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="P4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="Y4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="AC4" t="s">
         <v>0</v>
       </c>
       <c r="AD4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AH4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM4" s="15" t="s">
+      <c r="AL4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AN4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AS4" s="15" t="s">
-        <v>24</v>
+      <c r="AS4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT4" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>240</v>
       </c>
-      <c r="J5" s="10">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="10" t="s">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" s="11">
+      <c r="O5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5">
         <v>240</v>
       </c>
       <c r="T5" s="1">
         <v>1</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Y5" s="2">
         <v>1</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA5">
         <v>240</v>
@@ -1046,114 +1068,117 @@
         <v>1</v>
       </c>
       <c r="AD5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI5">
+        <v>240</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI5" s="2" t="s">
+      <c r="AO5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="AJ5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM5">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO5">
-        <v>1</v>
-      </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS5">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>160</v>
       </c>
-      <c r="J6" s="11">
-        <v>1</v>
-      </c>
-      <c r="K6" s="11" t="s">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" s="11">
+      <c r="N6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6">
         <v>240</v>
       </c>
       <c r="T6">
         <v>2</v>
       </c>
       <c r="U6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Y6" s="2">
         <v>2</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA6">
         <v>160</v>
@@ -1162,136 +1187,139 @@
         <v>2</v>
       </c>
       <c r="AD6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>2</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI6">
+        <v>160</v>
+      </c>
+      <c r="AK6">
+        <v>2</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM6" t="s">
         <v>7</v>
       </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
-        <v>2</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM6">
-        <v>2</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO6">
-        <v>1</v>
-      </c>
-      <c r="AQ6">
-        <v>2</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS6">
-        <v>160</v>
+      <c r="AN6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR6">
+        <v>2</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="J7" s="11">
-        <v>2</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" s="11">
+    <row r="7" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7">
         <v>160</v>
       </c>
       <c r="AC7">
         <v>3</v>
       </c>
       <c r="AD7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE7">
         <v>2</v>
       </c>
-      <c r="AM7">
+      <c r="AR7">
         <v>3</v>
       </c>
-      <c r="AN7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO7">
+      <c r="AS7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="J8" s="11">
-        <v>2</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="11">
+    <row r="8" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8">
         <v>160</v>
       </c>
       <c r="AC8">
         <v>4</v>
       </c>
       <c r="AD8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE8">
         <v>2</v>
       </c>
-      <c r="AM8">
+      <c r="AR8">
         <v>4</v>
       </c>
-      <c r="AN8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO8">
+      <c r="AS8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT8">
         <v>2</v>
       </c>
     </row>
